--- a/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T13:45:15+00:00</t>
+    <t>2024-06-05T13:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T13:46:49+00:00</t>
+    <t>2024-06-05T14:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T14:36:20+00:00</t>
+    <t>2024-06-05T15:29:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-prepare-release/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T15:29:15+00:00</t>
+    <t>2024-06-05T15:31:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
